--- a/biology/Zoologie/Donax_vittatus/Donax_vittatus.xlsx
+++ b/biology/Zoologie/Donax_vittatus/Donax_vittatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Donax vittatus, dite donace ou surnommée donace des canards, est une espèce de mollusques bivalves marins de la famille des Donacidae.
 Elle est nommée également olive, haricot de mer ou flion. Elle est parfois vendue sous l'appellation de telline.
